--- a/БД/Database.xlsx
+++ b/БД/Database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rostislav\NetCracker\2\БД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sav\Desktop\SOFT\EPAM\lab_8\LAB_8\БД\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,10 @@
     <t>MW</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>DW</t>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>WW</t>
   </si>
 </sst>
 </file>
@@ -583,30 +583,30 @@
   <dimension ref="B1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="1" customWidth="1"/>
-    <col min="5" max="10" width="7.5546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="11.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
+    <col min="5" max="10" width="7.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="11.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -614,7 +614,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -622,7 +622,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -630,7 +630,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -638,7 +638,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>11</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>12</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>13</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>14</v>
       </c>
@@ -936,7 +936,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>15</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>16</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="L13" s="3">
         <v>27</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P15" s="11" t="s">
         <v>32</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P16" s="7" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P17" s="3">
         <v>26</v>
       </c>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P18" s="3">
         <v>27</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P19" s="3">
         <v>26</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P20" s="3">
         <v>27</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P21" s="2">
         <v>21</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P22" s="2">
         <v>22</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P23" s="2">
         <v>23</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P24" s="2">
         <v>24</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>42137</v>
       </c>
     </row>
-    <row r="25" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P25" s="2">
         <v>25</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P26" s="2">
         <v>21</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P27" s="2">
         <v>22</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P28" s="2">
         <v>23</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P29" s="2">
         <v>24</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="30" spans="16:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P30" s="2">
         <v>25</v>
       </c>
